--- a/biology/Botanique/Orobanchaceae/Orobanchaceae.xlsx
+++ b/biology/Botanique/Orobanchaceae/Orobanchaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orobanchacées (Orobanchaceae) sont une famille de plantes dicotylédones qui comprend notamment les orobanches qui parasitent de façon quasi spécifique d'autres plantes. Ce sont des plantes herbacées, à feuilles simples, alternes, plus ou moins parasites, des régions tempérées à subtropicales, surtout dans l'hémisphère nord. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Orobanche, composé des mots grecs anciens οροβοσ / orobos, vesce, et αγχω / ancho, « serrer ; étrangler ; étouffer », en référence au caractère parasitaire de la plante. Pour Fournier il s'agit de « L'ancien nom grec d'une plante parasitaire des Vesces et des Lentilles ». 
 </t>
@@ -542,18 +556,89 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification classique, la famille des Orobanchacées comprend 180 espèces réparties en 60 à 70 genres.
-Pour la classification phylogénétique APG (1998)[1] et la classification phylogénétique APG II (2003)[2] les contours de cette famille sont plus étendus avec près de 2 000 espèces réparties en 65 genres avec en particulier la tribu Rhinantheae comprenant les genres Euphrasia, Lathraea, Melampyrum et Pedicularis placés précédemment dans les Scrofulariacées. Cette famille est située dans l'ordre des Lamiales.
-En classification phylogénétique APG IV (2016)[3], les Lindenbergiaceae et Rehmanniaceae sont inclus dans les Orobanchaceae.
-Liste des tribus
-Selon Angiosperm Phylogeny Website                        (7 Jul 2010)[4] et NCBI  (7 Jul 2010)[5] :
+Pour la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) les contours de cette famille sont plus étendus avec près de 2 000 espèces réparties en 65 genres avec en particulier la tribu Rhinantheae comprenant les genres Euphrasia, Lathraea, Melampyrum et Pedicularis placés précédemment dans les Scrofulariacées. Cette famille est située dans l'ordre des Lamiales.
+En classification phylogénétique APG IV (2016), les Lindenbergiaceae et Rehmanniaceae sont inclus dans les Orobanchaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (7 Jul 2010) et NCBI  (7 Jul 2010) :
 tribu Buchnereae
 tribu Orobancheae
-tribu Rhinantheae
-Liste des genres
-Selon Angiosperm Phylogeny Website                        (7 Jul 2010)[4] :
+tribu Rhinantheae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orobanchaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (7 Jul 2010) :
 Aeginetia
 Agalinis
 Asepalum
@@ -623,7 +708,7 @@
 Tozzia
 Xylanche
 Xylocalyx
-Selon NCBI  (7 Jul 2010)[5] :
+Selon NCBI  (7 Jul 2010) :
 Asepalum
 tribu Buchnereae
 Agalinis
@@ -689,7 +774,7 @@
 Christisonia
 Lathraea
 Lindenbergia
-Selon DELTA Angio           (7 Jul 2010)[6] :
+Selon DELTA Angio           (7 Jul 2010) :
 Aeginetia
 Boschniakia
 Christisonia
@@ -707,7 +792,7 @@
 Platypholis
 Scophulariaceae
 Xylanche
-Selon ITIS      (7 Jul 2010)[7] :
+Selon ITIS      (7 Jul 2010) :
 Aeginetia L.
 Boschniakia C.A. Mey. ex Bong.
 Conopholis Wallr.
